--- a/biology/Biochimie/Poly(ADP-ribose)_glycohydrolase/Poly(ADP-ribose)_glycohydrolase.xlsx
+++ b/biology/Biochimie/Poly(ADP-ribose)_glycohydrolase/Poly(ADP-ribose)_glycohydrolase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poly(ADP-ribose) glycohydrolase (PARG) est une glycosidase qui catalyse l'hydrolyse de la liaison osidique ribose–ribose 1’’→2’ pour libérer de l'ADP-ribose. Chez l'homme, elle est encodée par le gène PARG[1],[2],[3].
-Cette enzyme est la principale responsable de la dégradation du poly(ADP-ribose, un marqueur formé par une poly(ADP-ribose) polymérase (PARP) et qui modifie par covalence les protéines chromosomiques de façon réversible. Cette protéine est présente dans de nombreux tissus et peut être sujette à une protéolyse libérant plusieurs fragments actifs plus petits[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poly(ADP-ribose) glycohydrolase (PARG) est une glycosidase qui catalyse l'hydrolyse de la liaison osidique ribose–ribose 1’’→2’ pour libérer de l'ADP-ribose. Chez l'homme, elle est encodée par le gène PARG.
+Cette enzyme est la principale responsable de la dégradation du poly(ADP-ribose, un marqueur formé par une poly(ADP-ribose) polymérase (PARP) et qui modifie par covalence les protéines chromosomiques de façon réversible. Cette protéine est présente dans de nombreux tissus et peut être sujette à une protéolyse libérant plusieurs fragments actifs plus petits.
 </t>
         </is>
       </c>
